--- a/excel/GUI Automated Testing- Login.xlsx
+++ b/excel/GUI Automated Testing- Login.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10920" windowHeight="7575" firstSheet="10" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10920" windowHeight="7575" firstSheet="12" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="GUI_L_AP_001" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,8 @@
     <sheet name="GUI_L_AN_014" sheetId="17" r:id="rId14"/>
     <sheet name="GUI_L_AN_015" sheetId="18" r:id="rId15"/>
     <sheet name="GUI_L_AN_016" sheetId="19" r:id="rId16"/>
+    <sheet name="Parameters" sheetId="20" r:id="rId17"/>
+    <sheet name="Objects" sheetId="21" r:id="rId18"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="63">
   <si>
     <t>Step</t>
   </si>
@@ -134,9 +136,6 @@
     <t>Screenshot</t>
   </si>
   <si>
-    <t>Numeric Value</t>
-  </si>
-  <si>
     <t>MarisolR</t>
   </si>
   <si>
@@ -176,9 +175,6 @@
     <t>//a[contains(text(),'Forgot your password?')]</t>
   </si>
   <si>
-    <t>NumericValue</t>
-  </si>
-  <si>
     <t>Navigate</t>
   </si>
   <si>
@@ -225,6 +221,15 @@
   </si>
   <si>
     <t>Mike1</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>ValueLocator</t>
   </si>
 </sst>
 </file>
@@ -582,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,7 +606,7 @@
     <col min="10" max="10" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -629,11 +634,8 @@
       <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -647,7 +649,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -655,7 +657,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -667,7 +669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -687,7 +689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -710,7 +712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -733,7 +735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -753,7 +755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -761,7 +763,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -776,7 +778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -798,10 +800,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,7 +818,7 @@
     <col min="10" max="10" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -844,11 +846,8 @@
       <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -862,7 +861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -870,7 +869,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -882,7 +881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -902,7 +901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -913,7 +912,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -925,7 +924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -936,7 +935,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -948,7 +947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -956,7 +955,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -968,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -976,7 +975,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -991,7 +990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1012,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,7 +1029,7 @@
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1058,11 +1057,8 @@
       <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1070,13 +1066,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1084,7 +1080,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -1096,7 +1092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1116,7 +1112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1127,7 +1123,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -1139,7 +1135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1150,7 +1146,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -1162,7 +1158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1182,7 +1178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1190,7 +1186,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -1205,7 +1201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1226,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,7 +1240,7 @@
     <col min="10" max="10" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1272,11 +1268,8 @@
       <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1284,13 +1277,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1298,7 +1291,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -1310,7 +1303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1330,7 +1323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1341,7 +1334,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -1353,7 +1346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1364,7 +1357,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -1376,7 +1369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1396,7 +1389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1404,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -1419,7 +1412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1437,10 +1430,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,7 +1448,7 @@
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1483,11 +1476,8 @@
       <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1495,13 +1485,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1509,7 +1499,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -1521,7 +1511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1541,7 +1531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1552,7 +1542,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -1564,7 +1554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1575,7 +1565,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -1587,7 +1577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1607,7 +1597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1625,10 +1615,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" activeCellId="2" sqref="A7:XFD7 A8:XFD8 A9:XFD9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1643,7 +1633,7 @@
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1671,11 +1661,8 @@
       <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1683,13 +1670,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1697,7 +1684,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -1709,7 +1696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1729,7 +1716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1740,7 +1727,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -1752,7 +1739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1763,7 +1750,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -1775,7 +1762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1795,7 +1782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1803,7 +1790,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -1818,7 +1805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1836,10 +1823,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" activeCellId="2" sqref="A7:XFD7 A8:XFD8 A9:XFD9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1854,7 +1841,7 @@
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1882,11 +1869,8 @@
       <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1894,13 +1878,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1908,7 +1892,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -1920,7 +1904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1940,7 +1924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1951,7 +1935,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -1963,7 +1947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1974,7 +1958,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -1986,7 +1970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2006,7 +1990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2014,7 +1998,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -2029,7 +2013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2047,10 +2031,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2065,7 +2049,7 @@
     <col min="10" max="10" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2093,11 +2077,8 @@
       <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2105,13 +2086,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2119,7 +2100,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -2131,7 +2112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2151,7 +2132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2162,7 +2143,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -2174,7 +2155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2185,7 +2166,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -2197,7 +2178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2217,7 +2198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2225,7 +2206,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -2240,7 +2221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2249,6 +2230,58 @@
       </c>
       <c r="C9" t="s">
         <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2258,10 +2291,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2276,7 +2309,7 @@
     <col min="10" max="10" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2304,11 +2337,8 @@
       <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2322,7 +2352,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2330,7 +2360,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -2342,7 +2372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2362,7 +2392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2373,7 +2403,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -2385,7 +2415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2396,7 +2426,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -2408,15 +2438,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
         <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -2428,7 +2458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2436,7 +2466,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -2451,7 +2481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2473,10 +2503,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2492,7 +2522,7 @@
     <col min="10" max="10" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2520,11 +2550,8 @@
       <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2538,7 +2565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2546,7 +2573,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -2558,7 +2585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2578,7 +2605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2589,7 +2616,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -2601,7 +2628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2624,7 +2651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2644,7 +2671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2665,10 +2692,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2683,7 +2710,7 @@
     <col min="10" max="10" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2711,11 +2738,8 @@
       <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2729,7 +2753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2737,7 +2761,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -2749,7 +2773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2769,7 +2793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2780,7 +2804,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -2792,7 +2816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2803,7 +2827,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -2815,7 +2839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2835,7 +2859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2856,10 +2880,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2874,7 +2898,7 @@
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2902,11 +2926,8 @@
       <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2920,7 +2941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2928,7 +2949,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -2940,7 +2961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2960,7 +2981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2971,7 +2992,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -2983,7 +3004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2994,7 +3015,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -3006,7 +3027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3026,7 +3047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3047,10 +3068,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3066,7 +3087,7 @@
     <col min="10" max="10" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3094,11 +3115,8 @@
       <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3112,7 +3130,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3120,7 +3138,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -3132,7 +3150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3152,7 +3170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3163,7 +3181,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -3175,7 +3193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3195,7 +3213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3206,7 +3224,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
@@ -3218,7 +3236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3238,7 +3256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3246,7 +3264,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -3261,7 +3279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3284,10 +3302,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3302,7 +3320,7 @@
     <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3330,11 +3348,8 @@
       <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3348,7 +3363,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3356,7 +3371,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -3368,7 +3383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3388,7 +3403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3411,7 +3426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3419,19 +3434,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3453,10 +3468,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3471,7 +3486,7 @@
     <col min="10" max="10" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3499,11 +3514,8 @@
       <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3517,7 +3529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3525,7 +3537,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -3537,7 +3549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3557,7 +3569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3565,19 +3577,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3598,10 +3610,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3617,7 +3629,7 @@
     <col min="11" max="11" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3645,11 +3657,8 @@
       <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3663,7 +3672,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3671,7 +3680,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -3683,7 +3692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3703,7 +3712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3714,7 +3723,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -3726,7 +3735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3734,7 +3743,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -3746,7 +3755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3757,7 +3766,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
@@ -3769,7 +3778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3777,7 +3786,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
@@ -3789,7 +3798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3797,7 +3806,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -3812,7 +3821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>

--- a/excel/GUI Automated Testing- Login.xlsx
+++ b/excel/GUI Automated Testing- Login.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10920" windowHeight="7575" firstSheet="12" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10920" windowHeight="7575"/>
   </bookViews>
   <sheets>
     <sheet name="GUI_L_AP_001" sheetId="1" r:id="rId1"/>
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="A1:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,7 +1432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -2264,7 +2264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
